--- a/resultados/pretratamiento-tablas-control/pretrat-alemania-elo-facil-dificultad.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-alemania-elo-facil-dificultad.xlsx
@@ -3968,10 +3968,10 @@
         <v>-1.57</v>
       </c>
       <c r="H2">
-        <v>-0.43</v>
+        <v>-0.437</v>
       </c>
       <c r="I2">
-        <v>0.668</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3997,10 +3997,10 @@
         <v>-3.952</v>
       </c>
       <c r="H3">
-        <v>-1.128</v>
+        <v>-1.211</v>
       </c>
       <c r="I3">
-        <v>0.261</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4026,10 +4026,10 @@
         <v>0.389</v>
       </c>
       <c r="H4">
-        <v>0.102</v>
+        <v>0.089</v>
       </c>
       <c r="I4">
-        <v>0.919</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4055,10 +4055,10 @@
         <v>1.34</v>
       </c>
       <c r="H5">
-        <v>0.355</v>
+        <v>0.329</v>
       </c>
       <c r="I5">
-        <v>0.723</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4084,10 +4084,10 @@
         <v>1.622</v>
       </c>
       <c r="H6">
-        <v>0.42</v>
+        <v>0.457</v>
       </c>
       <c r="I6">
-        <v>0.675</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4113,10 +4113,10 @@
         <v>-3.098</v>
       </c>
       <c r="H7">
-        <v>-0.743</v>
+        <v>-0.722</v>
       </c>
       <c r="I7">
-        <v>0.458</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4142,10 +4142,10 @@
         <v>0.623</v>
       </c>
       <c r="H8">
-        <v>0.429</v>
+        <v>0.368</v>
       </c>
       <c r="I8">
-        <v>0.669</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4171,10 +4171,10 @@
         <v>2.048</v>
       </c>
       <c r="H9">
-        <v>1.488</v>
+        <v>1.663</v>
       </c>
       <c r="I9">
-        <v>0.138</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4200,10 +4200,10 @@
         <v>-0.234</v>
       </c>
       <c r="H10">
-        <v>-0.155</v>
+        <v>-0.128</v>
       </c>
       <c r="I10">
-        <v>0.877</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4229,10 +4229,10 @@
         <v>-0.572</v>
       </c>
       <c r="H11">
-        <v>-0.367</v>
+        <v>-0.387</v>
       </c>
       <c r="I11">
-        <v>0.714</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4258,10 +4258,10 @@
         <v>0.32</v>
       </c>
       <c r="H12">
-        <v>0.206</v>
+        <v>0.217</v>
       </c>
       <c r="I12">
-        <v>0.837</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4287,10 +4287,10 @@
         <v>1.389</v>
       </c>
       <c r="H13">
-        <v>0.922</v>
+        <v>0.989</v>
       </c>
       <c r="I13">
-        <v>0.358</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4316,10 +4316,10 @@
         <v>-0.023</v>
       </c>
       <c r="H14">
-        <v>-1.155</v>
+        <v>-1.076</v>
       </c>
       <c r="I14">
-        <v>0.249</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4345,10 +4345,10 @@
         <v>-0.011</v>
       </c>
       <c r="H15">
-        <v>-0.492</v>
+        <v>-0.513</v>
       </c>
       <c r="I15">
-        <v>0.624</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4374,10 +4374,10 @@
         <v>-0.019</v>
       </c>
       <c r="H16">
-        <v>-0.8159999999999999</v>
+        <v>-1.083</v>
       </c>
       <c r="I16">
-        <v>0.415</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4403,10 +4403,10 @@
         <v>-0.027</v>
       </c>
       <c r="H17">
-        <v>-1.047</v>
+        <v>-1.134</v>
       </c>
       <c r="I17">
-        <v>0.297</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4432,10 +4432,10 @@
         <v>-0.03</v>
       </c>
       <c r="H18">
-        <v>-1.114</v>
+        <v>-1.097</v>
       </c>
       <c r="I18">
-        <v>0.267</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4461,10 +4461,10 @@
         <v>-0.015</v>
       </c>
       <c r="H19">
-        <v>-0.5</v>
+        <v>-0.389</v>
       </c>
       <c r="I19">
-        <v>0.618</v>
+        <v>0.698</v>
       </c>
     </row>
   </sheetData>
@@ -4550,10 +4550,10 @@
         <v>-7.97</v>
       </c>
       <c r="I2">
-        <v>-2.013</v>
+        <v>-2.614</v>
       </c>
       <c r="J2">
-        <v>0.046</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4582,10 +4582,10 @@
         <v>-7.468</v>
       </c>
       <c r="I3">
-        <v>-2.03</v>
+        <v>-1.941</v>
       </c>
       <c r="J3">
-        <v>0.044</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4614,7 +4614,7 @@
         <v>0.064</v>
       </c>
       <c r="I4">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="J4">
         <v>0.988</v>
@@ -4646,10 +4646,10 @@
         <v>2.964</v>
       </c>
       <c r="I5">
-        <v>0.734</v>
+        <v>0.721</v>
       </c>
       <c r="J5">
-        <v>0.464</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4678,10 +4678,10 @@
         <v>1.401</v>
       </c>
       <c r="I6">
-        <v>0.344</v>
+        <v>0.407</v>
       </c>
       <c r="J6">
-        <v>0.732</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4710,10 +4710,10 @@
         <v>-0.753</v>
       </c>
       <c r="I7">
-        <v>-0.168</v>
+        <v>-0.134</v>
       </c>
       <c r="J7">
-        <v>0.867</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4742,10 +4742,10 @@
         <v>3.619</v>
       </c>
       <c r="I8">
-        <v>2.34</v>
+        <v>2.627</v>
       </c>
       <c r="J8">
-        <v>0.021</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4774,10 +4774,10 @@
         <v>3.316</v>
       </c>
       <c r="I9">
-        <v>2.418</v>
+        <v>2.151</v>
       </c>
       <c r="J9">
-        <v>0.017</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4806,7 +4806,7 @@
         <v>0.013</v>
       </c>
       <c r="I10">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="J10">
         <v>0.994</v>
@@ -4838,10 +4838,10 @@
         <v>-1.584</v>
       </c>
       <c r="I11">
-        <v>-0.971</v>
+        <v>-1.154</v>
       </c>
       <c r="J11">
-        <v>0.333</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4870,10 +4870,10 @@
         <v>0.474</v>
       </c>
       <c r="I12">
-        <v>0.292</v>
+        <v>0.287</v>
       </c>
       <c r="J12">
-        <v>0.771</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4902,10 +4902,10 @@
         <v>0.877</v>
       </c>
       <c r="I13">
-        <v>0.527</v>
+        <v>0.454</v>
       </c>
       <c r="J13">
-        <v>0.599</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4934,10 +4934,10 @@
         <v>-0.045</v>
       </c>
       <c r="I14">
-        <v>-2.073</v>
+        <v>-3.041</v>
       </c>
       <c r="J14">
-        <v>0.04</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4966,10 +4966,10 @@
         <v>-0.037</v>
       </c>
       <c r="I15">
-        <v>-1.659</v>
+        <v>-1.484</v>
       </c>
       <c r="J15">
-        <v>0.099</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4998,10 +4998,10 @@
         <v>-0.016</v>
       </c>
       <c r="I16">
-        <v>-0.642</v>
+        <v>-0.542</v>
       </c>
       <c r="J16">
-        <v>0.522</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5030,10 +5030,10 @@
         <v>-0.01</v>
       </c>
       <c r="I17">
-        <v>-0.378</v>
+        <v>-0.35</v>
       </c>
       <c r="J17">
-        <v>0.706</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5062,10 +5062,10 @@
         <v>0.032</v>
       </c>
       <c r="I18">
-        <v>1.114</v>
+        <v>0.835</v>
       </c>
       <c r="J18">
-        <v>0.267</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5094,10 +5094,10 @@
         <v>0.029</v>
       </c>
       <c r="I19">
-        <v>0.893</v>
+        <v>0.587</v>
       </c>
       <c r="J19">
-        <v>0.373</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5190,10 +5190,10 @@
         <v>-9.656000000000001</v>
       </c>
       <c r="J2">
-        <v>-2.048</v>
+        <v>-2.805</v>
       </c>
       <c r="K2">
-        <v>0.042</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5225,10 +5225,10 @@
         <v>-3.917</v>
       </c>
       <c r="J3">
-        <v>-0.884</v>
+        <v>-0.858</v>
       </c>
       <c r="K3">
-        <v>0.378</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5260,10 +5260,10 @@
         <v>1.704</v>
       </c>
       <c r="J4">
-        <v>0.347</v>
+        <v>0.36</v>
       </c>
       <c r="K4">
-        <v>0.729</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5295,10 +5295,10 @@
         <v>3.365</v>
       </c>
       <c r="J5">
-        <v>0.699</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="K5">
-        <v>0.485</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5330,10 +5330,10 @@
         <v>-0.399</v>
       </c>
       <c r="J6">
-        <v>-0.082</v>
+        <v>-0.092</v>
       </c>
       <c r="K6">
-        <v>0.9350000000000001</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5365,10 +5365,10 @@
         <v>-1.753</v>
       </c>
       <c r="J7">
-        <v>-0.328</v>
+        <v>-0.276</v>
       </c>
       <c r="K7">
-        <v>0.743</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5400,10 +5400,10 @@
         <v>4.199</v>
       </c>
       <c r="J8">
-        <v>2.276</v>
+        <v>2.933</v>
       </c>
       <c r="K8">
-        <v>0.024</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5435,10 +5435,10 @@
         <v>2.003</v>
       </c>
       <c r="J9">
-        <v>1.209</v>
+        <v>1.037</v>
       </c>
       <c r="K9">
-        <v>0.228</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5470,10 +5470,10 @@
         <v>-0.398</v>
       </c>
       <c r="J10">
-        <v>-0.206</v>
+        <v>-0.222</v>
       </c>
       <c r="K10">
-        <v>0.837</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5505,10 +5505,10 @@
         <v>-1.806</v>
       </c>
       <c r="J11">
-        <v>-0.929</v>
+        <v>-0.965</v>
       </c>
       <c r="K11">
-        <v>0.355</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5540,10 +5540,10 @@
         <v>1.171</v>
       </c>
       <c r="J12">
-        <v>0.606</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K12">
-        <v>0.546</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5575,10 +5575,10 @@
         <v>1.022</v>
       </c>
       <c r="J13">
-        <v>0.515</v>
+        <v>0.46</v>
       </c>
       <c r="K13">
-        <v>0.607</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5610,10 +5610,10 @@
         <v>-0.052</v>
       </c>
       <c r="J14">
-        <v>-2.042</v>
+        <v>-2.957</v>
       </c>
       <c r="K14">
-        <v>0.043</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5645,10 +5645,10 @@
         <v>-0.044</v>
       </c>
       <c r="J15">
-        <v>-1.66</v>
+        <v>-1.559</v>
       </c>
       <c r="K15">
-        <v>0.099</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5680,10 +5680,10 @@
         <v>-0.026</v>
       </c>
       <c r="J16">
-        <v>-0.868</v>
+        <v>-0.891</v>
       </c>
       <c r="K16">
-        <v>0.387</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5715,10 +5715,10 @@
         <v>-0.018</v>
       </c>
       <c r="J17">
-        <v>-0.604</v>
+        <v>-0.61</v>
       </c>
       <c r="K17">
-        <v>0.546</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5750,10 +5750,10 @@
         <v>0.01</v>
       </c>
       <c r="J18">
-        <v>0.305</v>
+        <v>0.239</v>
       </c>
       <c r="K18">
-        <v>0.761</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5785,10 +5785,10 @@
         <v>0.035</v>
       </c>
       <c r="J19">
-        <v>0.922</v>
+        <v>0.794</v>
       </c>
       <c r="K19">
-        <v>0.358</v>
+        <v>0.427</v>
       </c>
     </row>
   </sheetData>
@@ -5881,10 +5881,10 @@
         <v>-14.193</v>
       </c>
       <c r="J2">
-        <v>-2.635</v>
+        <v>-3.149</v>
       </c>
       <c r="K2">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5916,10 +5916,10 @@
         <v>-5.315</v>
       </c>
       <c r="J3">
-        <v>-1.042</v>
+        <v>-0.923</v>
       </c>
       <c r="K3">
-        <v>0.299</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5986,10 +5986,10 @@
         <v>3.861</v>
       </c>
       <c r="J5">
-        <v>0.696</v>
+        <v>0.715</v>
       </c>
       <c r="K5">
-        <v>0.487</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6021,10 +6021,10 @@
         <v>-1.477</v>
       </c>
       <c r="J6">
-        <v>-0.264</v>
+        <v>-0.335</v>
       </c>
       <c r="K6">
-        <v>0.792</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6056,10 +6056,10 @@
         <v>-2.327</v>
       </c>
       <c r="J7">
-        <v>-0.378</v>
+        <v>-0.424</v>
       </c>
       <c r="K7">
-        <v>0.706</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6091,10 +6091,10 @@
         <v>5.528</v>
       </c>
       <c r="J8">
-        <v>2.614</v>
+        <v>2.833</v>
       </c>
       <c r="K8">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6126,10 +6126,10 @@
         <v>2.433</v>
       </c>
       <c r="J9">
-        <v>1.275</v>
+        <v>1.042</v>
       </c>
       <c r="K9">
-        <v>0.204</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6161,10 +6161,10 @@
         <v>-0.53</v>
       </c>
       <c r="J10">
-        <v>-0.238</v>
+        <v>-0.275</v>
       </c>
       <c r="K10">
-        <v>0.8120000000000001</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6196,10 +6196,10 @@
         <v>-2.174</v>
       </c>
       <c r="J11">
-        <v>-0.97</v>
+        <v>-0.911</v>
       </c>
       <c r="K11">
-        <v>0.333</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6231,10 +6231,10 @@
         <v>0.994</v>
       </c>
       <c r="J12">
-        <v>0.446</v>
+        <v>0.487</v>
       </c>
       <c r="K12">
-        <v>0.656</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6266,10 +6266,10 @@
         <v>0.656</v>
       </c>
       <c r="J13">
-        <v>0.287</v>
+        <v>0.36</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6301,10 +6301,10 @@
         <v>-0.051</v>
       </c>
       <c r="J14">
-        <v>-1.729</v>
+        <v>-2.741</v>
       </c>
       <c r="K14">
-        <v>0.08599999999999999</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6336,10 +6336,10 @@
         <v>-0.027</v>
       </c>
       <c r="J15">
-        <v>-0.855</v>
+        <v>-1.128</v>
       </c>
       <c r="K15">
-        <v>0.394</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6371,10 +6371,10 @@
         <v>-0.006</v>
       </c>
       <c r="J16">
-        <v>-0.165</v>
+        <v>-0.206</v>
       </c>
       <c r="K16">
-        <v>0.869</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6406,10 +6406,10 @@
         <v>-0.013</v>
       </c>
       <c r="J17">
-        <v>-0.379</v>
+        <v>-0.391</v>
       </c>
       <c r="K17">
-        <v>0.705</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6441,10 +6441,10 @@
         <v>0.008</v>
       </c>
       <c r="J18">
-        <v>0.194</v>
+        <v>0.15</v>
       </c>
       <c r="K18">
-        <v>0.846</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6476,10 +6476,10 @@
         <v>0.026</v>
       </c>
       <c r="J19">
-        <v>0.593</v>
+        <v>0.586</v>
       </c>
       <c r="K19">
-        <v>0.554</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6565,10 +6565,10 @@
         <v>-4.098</v>
       </c>
       <c r="I2">
-        <v>-1.164</v>
+        <v>-1.064</v>
       </c>
       <c r="J2">
-        <v>0.246</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6597,10 +6597,10 @@
         <v>-4.041</v>
       </c>
       <c r="I3">
-        <v>-1.234</v>
+        <v>-1.189</v>
       </c>
       <c r="J3">
-        <v>0.219</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6629,10 +6629,10 @@
         <v>-0.77</v>
       </c>
       <c r="I4">
-        <v>-0.212</v>
+        <v>-0.186</v>
       </c>
       <c r="J4">
-        <v>0.833</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6661,10 +6661,10 @@
         <v>5.691</v>
       </c>
       <c r="I5">
-        <v>1.664</v>
+        <v>1.599</v>
       </c>
       <c r="J5">
-        <v>0.098</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6693,10 +6693,10 @@
         <v>3.739</v>
       </c>
       <c r="I6">
-        <v>1.046</v>
+        <v>1.091</v>
       </c>
       <c r="J6">
-        <v>0.297</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6725,10 +6725,10 @@
         <v>0.483</v>
       </c>
       <c r="I7">
-        <v>0.123</v>
+        <v>0.113</v>
       </c>
       <c r="J7">
-        <v>0.902</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6757,10 +6757,10 @@
         <v>2.504</v>
       </c>
       <c r="I8">
-        <v>1.875</v>
+        <v>1.853</v>
       </c>
       <c r="J8">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6789,10 +6789,10 @@
         <v>1.513</v>
       </c>
       <c r="I9">
-        <v>1.262</v>
+        <v>1.297</v>
       </c>
       <c r="J9">
-        <v>0.209</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6821,10 +6821,10 @@
         <v>0.092</v>
       </c>
       <c r="I10">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="J10">
-        <v>0.948</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6853,10 +6853,10 @@
         <v>-2.533</v>
       </c>
       <c r="I11">
-        <v>-1.867</v>
+        <v>-2.045</v>
       </c>
       <c r="J11">
-        <v>0.064</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6885,10 +6885,10 @@
         <v>-0.89</v>
       </c>
       <c r="I12">
-        <v>-0.638</v>
+        <v>-0.583</v>
       </c>
       <c r="J12">
-        <v>0.525</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6949,10 +6949,10 @@
         <v>-0.013</v>
       </c>
       <c r="I14">
-        <v>-0.676</v>
+        <v>-0.903</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6981,10 +6981,10 @@
         <v>-0.007</v>
       </c>
       <c r="I15">
-        <v>-0.369</v>
+        <v>-0.536</v>
       </c>
       <c r="J15">
-        <v>0.713</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7013,10 +7013,10 @@
         <v>-0.029</v>
       </c>
       <c r="I16">
-        <v>-1.306</v>
+        <v>-1.328</v>
       </c>
       <c r="J16">
-        <v>0.194</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7045,10 +7045,10 @@
         <v>0.005</v>
       </c>
       <c r="I17">
-        <v>0.244</v>
+        <v>0.201</v>
       </c>
       <c r="J17">
-        <v>0.8080000000000001</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7077,10 +7077,10 @@
         <v>0.013</v>
       </c>
       <c r="I18">
-        <v>0.521</v>
+        <v>0.525</v>
       </c>
       <c r="J18">
-        <v>0.603</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7198,10 +7198,10 @@
         <v>-6.192</v>
       </c>
       <c r="I2">
-        <v>-1.588</v>
+        <v>-1.423</v>
       </c>
       <c r="J2">
-        <v>0.114</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7230,10 +7230,10 @@
         <v>-6.571</v>
       </c>
       <c r="I3">
-        <v>-1.816</v>
+        <v>-1.732</v>
       </c>
       <c r="J3">
-        <v>0.07199999999999999</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7262,10 +7262,10 @@
         <v>3.892</v>
       </c>
       <c r="I4">
-        <v>0.966</v>
+        <v>0.777</v>
       </c>
       <c r="J4">
-        <v>0.336</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7294,10 +7294,10 @@
         <v>6.587</v>
       </c>
       <c r="I5">
-        <v>1.733</v>
+        <v>1.661</v>
       </c>
       <c r="J5">
-        <v>0.08500000000000001</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7326,10 +7326,10 @@
         <v>5.339</v>
       </c>
       <c r="I6">
-        <v>1.347</v>
+        <v>1.623</v>
       </c>
       <c r="J6">
-        <v>0.18</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7358,10 +7358,10 @@
         <v>2.432</v>
       </c>
       <c r="I7">
-        <v>0.5570000000000001</v>
+        <v>0.454</v>
       </c>
       <c r="J7">
-        <v>0.578</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7390,10 +7390,10 @@
         <v>2.904</v>
       </c>
       <c r="I8">
-        <v>1.957</v>
+        <v>1.892</v>
       </c>
       <c r="J8">
-        <v>0.052</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7422,10 +7422,10 @@
         <v>3.009</v>
       </c>
       <c r="I9">
-        <v>2.285</v>
+        <v>2.077</v>
       </c>
       <c r="J9">
-        <v>0.024</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7454,10 +7454,10 @@
         <v>-1.314</v>
       </c>
       <c r="I10">
-        <v>-0.841</v>
+        <v>-0.67</v>
       </c>
       <c r="J10">
-        <v>0.402</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7486,10 +7486,10 @@
         <v>-3.259</v>
       </c>
       <c r="I11">
-        <v>-2.168</v>
+        <v>-2.473</v>
       </c>
       <c r="J11">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7518,10 +7518,10 @@
         <v>-1.433</v>
       </c>
       <c r="I12">
-        <v>-0.924</v>
+        <v>-0.917</v>
       </c>
       <c r="J12">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7550,10 +7550,10 @@
         <v>-0.226</v>
       </c>
       <c r="I13">
-        <v>-0.141</v>
+        <v>-0.12</v>
       </c>
       <c r="J13">
-        <v>0.888</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7582,10 +7582,10 @@
         <v>-0.019</v>
       </c>
       <c r="I14">
-        <v>-0.85</v>
+        <v>-1.153</v>
       </c>
       <c r="J14">
-        <v>0.397</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7614,10 +7614,10 @@
         <v>-0.019</v>
       </c>
       <c r="I15">
-        <v>-0.874</v>
+        <v>-1.164</v>
       </c>
       <c r="J15">
-        <v>0.384</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7646,10 +7646,10 @@
         <v>-0.014</v>
       </c>
       <c r="I16">
-        <v>-0.571</v>
+        <v>-0.454</v>
       </c>
       <c r="J16">
-        <v>0.569</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7678,10 +7678,10 @@
         <v>0.016</v>
       </c>
       <c r="I17">
-        <v>0.655</v>
+        <v>0.619</v>
       </c>
       <c r="J17">
-        <v>0.513</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7710,10 +7710,10 @@
         <v>0.029</v>
       </c>
       <c r="I18">
-        <v>1.01</v>
+        <v>1.086</v>
       </c>
       <c r="J18">
-        <v>0.314</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7742,10 +7742,10 @@
         <v>0.005</v>
       </c>
       <c r="I19">
-        <v>0.156</v>
+        <v>0.122</v>
       </c>
       <c r="J19">
-        <v>0.876</v>
+        <v>0.903</v>
       </c>
     </row>
   </sheetData>
@@ -7838,10 +7838,10 @@
         <v>-7.808</v>
       </c>
       <c r="J2">
-        <v>-1.665</v>
+        <v>-1.639</v>
       </c>
       <c r="K2">
-        <v>0.098</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7873,10 +7873,10 @@
         <v>-2.283</v>
       </c>
       <c r="J3">
-        <v>-0.518</v>
+        <v>-0.527</v>
       </c>
       <c r="K3">
-        <v>0.605</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7908,10 +7908,10 @@
         <v>4.506</v>
       </c>
       <c r="J4">
-        <v>0.929</v>
+        <v>0.848</v>
       </c>
       <c r="K4">
-        <v>0.355</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7943,10 +7943,10 @@
         <v>6.516</v>
       </c>
       <c r="J5">
-        <v>1.419</v>
+        <v>1.357</v>
       </c>
       <c r="K5">
-        <v>0.158</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7978,10 +7978,10 @@
         <v>4.025</v>
       </c>
       <c r="J6">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="K6">
-        <v>0.402</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8013,10 +8013,10 @@
         <v>0.074</v>
       </c>
       <c r="J7">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="K7">
-        <v>0.989</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8048,10 +8048,10 @@
         <v>3.63</v>
       </c>
       <c r="J8">
-        <v>2.034</v>
+        <v>2.155</v>
       </c>
       <c r="K8">
-        <v>0.044</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8083,10 +8083,10 @@
         <v>1.615</v>
       </c>
       <c r="J9">
-        <v>1.004</v>
+        <v>0.953</v>
       </c>
       <c r="K9">
-        <v>0.317</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8118,10 +8118,10 @@
         <v>-1.102</v>
       </c>
       <c r="J10">
-        <v>-0.585</v>
+        <v>-0.531</v>
       </c>
       <c r="K10">
-        <v>0.5590000000000001</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8153,10 +8153,10 @@
         <v>-3.433</v>
       </c>
       <c r="J11">
-        <v>-1.89</v>
+        <v>-2.041</v>
       </c>
       <c r="K11">
-        <v>0.061</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8188,10 +8188,10 @@
         <v>-0.524</v>
       </c>
       <c r="J12">
-        <v>-0.28</v>
+        <v>-0.262</v>
       </c>
       <c r="K12">
-        <v>0.78</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8223,10 +8223,10 @@
         <v>0.414</v>
       </c>
       <c r="J13">
-        <v>0.215</v>
+        <v>0.173</v>
       </c>
       <c r="K13">
-        <v>0.83</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8258,10 +8258,10 @@
         <v>-0.026</v>
       </c>
       <c r="J14">
-        <v>-0.997</v>
+        <v>-1.873</v>
       </c>
       <c r="K14">
-        <v>0.32</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8293,10 +8293,10 @@
         <v>-0.028</v>
       </c>
       <c r="J15">
-        <v>-1.088</v>
+        <v>-1.305</v>
       </c>
       <c r="K15">
-        <v>0.278</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8328,10 +8328,10 @@
         <v>-0.023</v>
       </c>
       <c r="J16">
-        <v>-0.766</v>
+        <v>-0.702</v>
       </c>
       <c r="K16">
-        <v>0.445</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8363,10 +8363,10 @@
         <v>0.01</v>
       </c>
       <c r="J17">
-        <v>0.35</v>
+        <v>0.479</v>
       </c>
       <c r="K17">
-        <v>0.727</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8398,10 +8398,10 @@
         <v>0.012</v>
       </c>
       <c r="J18">
-        <v>0.344</v>
+        <v>0.394</v>
       </c>
       <c r="K18">
-        <v>0.731</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8529,10 +8529,10 @@
         <v>-11.516</v>
       </c>
       <c r="J2">
-        <v>-2.186</v>
+        <v>-1.956</v>
       </c>
       <c r="K2">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8564,10 +8564,10 @@
         <v>-2.126</v>
       </c>
       <c r="J3">
-        <v>-0.427</v>
+        <v>-0.383</v>
       </c>
       <c r="K3">
-        <v>0.67</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8599,10 +8599,10 @@
         <v>1.393</v>
       </c>
       <c r="J4">
-        <v>0.253</v>
+        <v>0.233</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8634,10 +8634,10 @@
         <v>5.897</v>
       </c>
       <c r="J5">
-        <v>1.133</v>
+        <v>1.042</v>
       </c>
       <c r="K5">
-        <v>0.259</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8669,10 +8669,10 @@
         <v>1.347</v>
       </c>
       <c r="J6">
-        <v>0.248</v>
+        <v>0.255</v>
       </c>
       <c r="K6">
-        <v>0.804</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8704,10 +8704,10 @@
         <v>-3.478</v>
       </c>
       <c r="J7">
-        <v>-0.585</v>
+        <v>-0.542</v>
       </c>
       <c r="K7">
-        <v>0.5590000000000001</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8739,10 +8739,10 @@
         <v>4.624</v>
       </c>
       <c r="J8">
-        <v>2.301</v>
+        <v>2.093</v>
       </c>
       <c r="K8">
-        <v>0.023</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8774,10 +8774,10 @@
         <v>1.419</v>
       </c>
       <c r="J9">
-        <v>0.779</v>
+        <v>0.671</v>
       </c>
       <c r="K9">
-        <v>0.437</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8809,10 +8809,10 @@
         <v>0.123</v>
       </c>
       <c r="J10">
-        <v>0.058</v>
+        <v>0.062</v>
       </c>
       <c r="K10">
-        <v>0.954</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8844,10 +8844,10 @@
         <v>-2.807</v>
       </c>
       <c r="J11">
-        <v>-1.358</v>
+        <v>-1.204</v>
       </c>
       <c r="K11">
-        <v>0.177</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8914,10 +8914,10 @@
         <v>1.351</v>
       </c>
       <c r="J13">
-        <v>0.621</v>
+        <v>0.603</v>
       </c>
       <c r="K13">
-        <v>0.535</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8949,10 +8949,10 @@
         <v>-0.016</v>
       </c>
       <c r="J14">
-        <v>-0.525</v>
+        <v>-0.758</v>
       </c>
       <c r="K14">
-        <v>0.6</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8984,10 +8984,10 @@
         <v>-0.004</v>
       </c>
       <c r="J15">
-        <v>-0.131</v>
+        <v>-0.173</v>
       </c>
       <c r="K15">
-        <v>0.896</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9019,10 +9019,10 @@
         <v>0.012</v>
       </c>
       <c r="J16">
-        <v>0.36</v>
+        <v>0.378</v>
       </c>
       <c r="K16">
-        <v>0.719</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -9054,10 +9054,10 @@
         <v>0.032</v>
       </c>
       <c r="J17">
-        <v>0.9409999999999999</v>
+        <v>1.228</v>
       </c>
       <c r="K17">
-        <v>0.348</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9089,10 +9089,10 @@
         <v>0.021</v>
       </c>
       <c r="J18">
-        <v>0.528</v>
+        <v>0.523</v>
       </c>
       <c r="K18">
-        <v>0.598</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -9124,10 +9124,10 @@
         <v>-0.012</v>
       </c>
       <c r="J19">
-        <v>-0.267</v>
+        <v>-0.304</v>
       </c>
       <c r="K19">
-        <v>0.79</v>
+        <v>0.761</v>
       </c>
     </row>
   </sheetData>
@@ -9213,10 +9213,10 @@
         <v>-4.064</v>
       </c>
       <c r="I2">
-        <v>-0.9360000000000001</v>
+        <v>-1.184</v>
       </c>
       <c r="J2">
-        <v>0.35</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9245,10 +9245,10 @@
         <v>-3.656</v>
       </c>
       <c r="I3">
-        <v>-0.874</v>
+        <v>-0.975</v>
       </c>
       <c r="J3">
-        <v>0.383</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9277,10 +9277,10 @@
         <v>3.351</v>
       </c>
       <c r="I4">
-        <v>0.735</v>
+        <v>0.596</v>
       </c>
       <c r="J4">
-        <v>0.463</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9309,10 +9309,10 @@
         <v>2.551</v>
       </c>
       <c r="I5">
-        <v>0.5669999999999999</v>
+        <v>0.503</v>
       </c>
       <c r="J5">
-        <v>0.571</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9341,10 +9341,10 @@
         <v>3.699</v>
       </c>
       <c r="I6">
-        <v>0.805</v>
+        <v>0.844</v>
       </c>
       <c r="J6">
-        <v>0.422</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9373,10 +9373,10 @@
         <v>0.391</v>
       </c>
       <c r="I7">
-        <v>0.079</v>
+        <v>0.083</v>
       </c>
       <c r="J7">
-        <v>0.9370000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9405,10 +9405,10 @@
         <v>0.866</v>
       </c>
       <c r="I8">
-        <v>0.501</v>
+        <v>0.538</v>
       </c>
       <c r="J8">
-        <v>0.617</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9437,10 +9437,10 @@
         <v>2.348</v>
       </c>
       <c r="I9">
-        <v>1.431</v>
+        <v>1.497</v>
       </c>
       <c r="J9">
-        <v>0.154</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9469,10 +9469,10 @@
         <v>-1.524</v>
       </c>
       <c r="I10">
-        <v>-0.846</v>
+        <v>-0.6870000000000001</v>
       </c>
       <c r="J10">
-        <v>0.399</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9501,10 +9501,10 @@
         <v>-1.67</v>
       </c>
       <c r="I11">
-        <v>-0.902</v>
+        <v>-0.994</v>
       </c>
       <c r="J11">
-        <v>0.368</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9533,10 +9533,10 @@
         <v>-1.017</v>
       </c>
       <c r="I12">
-        <v>-0.551</v>
+        <v>-0.545</v>
       </c>
       <c r="J12">
-        <v>0.582</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9565,10 +9565,10 @@
         <v>0.404</v>
       </c>
       <c r="I13">
-        <v>0.225</v>
+        <v>0.235</v>
       </c>
       <c r="J13">
-        <v>0.822</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9597,10 +9597,10 @@
         <v>-0.028</v>
       </c>
       <c r="I14">
-        <v>-1.18</v>
+        <v>-1.058</v>
       </c>
       <c r="J14">
-        <v>0.239</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9629,10 +9629,10 @@
         <v>0.003</v>
       </c>
       <c r="I15">
-        <v>0.098</v>
+        <v>0.116</v>
       </c>
       <c r="J15">
-        <v>0.922</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9661,10 +9661,10 @@
         <v>0.018</v>
       </c>
       <c r="I16">
-        <v>0.631</v>
+        <v>0.713</v>
       </c>
       <c r="J16">
-        <v>0.529</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9693,10 +9693,10 @@
         <v>-0.013</v>
       </c>
       <c r="I17">
-        <v>-0.431</v>
+        <v>-0.458</v>
       </c>
       <c r="J17">
-        <v>0.667</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9725,10 +9725,10 @@
         <v>-0.017</v>
       </c>
       <c r="I18">
-        <v>-0.55</v>
+        <v>-0.545</v>
       </c>
       <c r="J18">
-        <v>0.583</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9757,10 +9757,10 @@
         <v>-0.002</v>
       </c>
       <c r="I19">
-        <v>-0.047</v>
+        <v>-0.035</v>
       </c>
       <c r="J19">
-        <v>0.963</v>
+        <v>0.972</v>
       </c>
     </row>
   </sheetData>
@@ -9846,10 +9846,10 @@
         <v>-3.496</v>
       </c>
       <c r="I2">
-        <v>-0.694</v>
+        <v>-1.068</v>
       </c>
       <c r="J2">
-        <v>0.488</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9878,10 +9878,10 @@
         <v>-3.2</v>
       </c>
       <c r="I3">
-        <v>-0.66</v>
+        <v>-0.704</v>
       </c>
       <c r="J3">
-        <v>0.51</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9910,10 +9910,10 @@
         <v>3.768</v>
       </c>
       <c r="I4">
-        <v>0.713</v>
+        <v>0.594</v>
       </c>
       <c r="J4">
-        <v>0.477</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9942,10 +9942,10 @@
         <v>2.634</v>
       </c>
       <c r="I5">
-        <v>0.506</v>
+        <v>0.476</v>
       </c>
       <c r="J5">
-        <v>0.614</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9974,10 +9974,10 @@
         <v>2.566</v>
       </c>
       <c r="I6">
-        <v>0.481</v>
+        <v>0.506</v>
       </c>
       <c r="J6">
-        <v>0.631</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10006,10 +10006,10 @@
         <v>-2.228</v>
       </c>
       <c r="I7">
-        <v>-0.386</v>
+        <v>-0.447</v>
       </c>
       <c r="J7">
-        <v>0.7</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10038,10 +10038,10 @@
         <v>0.756</v>
       </c>
       <c r="I8">
-        <v>0.377</v>
+        <v>0.437</v>
       </c>
       <c r="J8">
-        <v>0.707</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10070,10 +10070,10 @@
         <v>2.143</v>
       </c>
       <c r="I9">
-        <v>1.125</v>
+        <v>1.056</v>
       </c>
       <c r="J9">
-        <v>0.262</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10102,10 +10102,10 @@
         <v>-1.451</v>
       </c>
       <c r="I10">
-        <v>-0.695</v>
+        <v>-0.576</v>
       </c>
       <c r="J10">
-        <v>0.488</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10134,10 +10134,10 @@
         <v>-1.432</v>
       </c>
       <c r="I11">
-        <v>-0.667</v>
+        <v>-0.695</v>
       </c>
       <c r="J11">
-        <v>0.506</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10166,10 +10166,10 @@
         <v>-0.7</v>
       </c>
       <c r="I12">
-        <v>-0.327</v>
+        <v>-0.311</v>
       </c>
       <c r="J12">
-        <v>0.744</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10198,10 +10198,10 @@
         <v>1.078</v>
       </c>
       <c r="I13">
-        <v>0.517</v>
+        <v>0.618</v>
       </c>
       <c r="J13">
-        <v>0.606</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10230,10 +10230,10 @@
         <v>-0.032</v>
       </c>
       <c r="I14">
-        <v>-1.163</v>
+        <v>-1.006</v>
       </c>
       <c r="J14">
-        <v>0.246</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10262,10 +10262,10 @@
         <v>0.002</v>
       </c>
       <c r="I15">
-        <v>0.058</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J15">
-        <v>0.954</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10294,10 +10294,10 @@
         <v>0.01</v>
       </c>
       <c r="I16">
-        <v>0.296</v>
+        <v>0.323</v>
       </c>
       <c r="J16">
-        <v>0.768</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10326,10 +10326,10 @@
         <v>-0.028</v>
       </c>
       <c r="I17">
-        <v>-0.791</v>
+        <v>-0.853</v>
       </c>
       <c r="J17">
-        <v>0.43</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10358,10 +10358,10 @@
         <v>-0.042</v>
       </c>
       <c r="I18">
-        <v>-1.143</v>
+        <v>-1.447</v>
       </c>
       <c r="J18">
-        <v>0.255</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10390,10 +10390,10 @@
         <v>-0</v>
       </c>
       <c r="I19">
-        <v>-0.011</v>
+        <v>-0.01</v>
       </c>
       <c r="J19">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>
@@ -10479,10 +10479,10 @@
         <v>-1.54</v>
       </c>
       <c r="I2">
-        <v>-0.277</v>
+        <v>-0.346</v>
       </c>
       <c r="J2">
-        <v>0.782</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10511,10 +10511,10 @@
         <v>-4.05</v>
       </c>
       <c r="I3">
-        <v>-0.758</v>
+        <v>-0.8139999999999999</v>
       </c>
       <c r="J3">
-        <v>0.449</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10543,10 +10543,10 @@
         <v>6.12</v>
       </c>
       <c r="I4">
-        <v>1.053</v>
+        <v>0.962</v>
       </c>
       <c r="J4">
-        <v>0.294</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10575,10 +10575,10 @@
         <v>6.092</v>
       </c>
       <c r="I5">
-        <v>1.064</v>
+        <v>0.972</v>
       </c>
       <c r="J5">
-        <v>0.289</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10607,10 +10607,10 @@
         <v>3.154</v>
       </c>
       <c r="I6">
-        <v>0.537</v>
+        <v>0.526</v>
       </c>
       <c r="J6">
-        <v>0.592</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10639,10 +10639,10 @@
         <v>-0.799</v>
       </c>
       <c r="I7">
-        <v>-0.126</v>
+        <v>-0.146</v>
       </c>
       <c r="J7">
-        <v>0.9</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10671,10 +10671,10 @@
         <v>-0.34</v>
       </c>
       <c r="I8">
-        <v>-0.154</v>
+        <v>-0.165</v>
       </c>
       <c r="J8">
-        <v>0.878</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10703,10 +10703,10 @@
         <v>2.427</v>
       </c>
       <c r="I9">
-        <v>1.156</v>
+        <v>1.084</v>
       </c>
       <c r="J9">
-        <v>0.249</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10735,10 +10735,10 @@
         <v>-2.543</v>
       </c>
       <c r="I10">
-        <v>-1.107</v>
+        <v>-0.999</v>
       </c>
       <c r="J10">
-        <v>0.27</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10767,10 +10767,10 @@
         <v>-2.617</v>
       </c>
       <c r="I11">
-        <v>-1.108</v>
+        <v>-1</v>
       </c>
       <c r="J11">
-        <v>0.269</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10799,10 +10799,10 @@
         <v>-1.439</v>
       </c>
       <c r="I12">
-        <v>-0.611</v>
+        <v>-0.58</v>
       </c>
       <c r="J12">
-        <v>0.542</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10831,10 +10831,10 @@
         <v>0.387</v>
       </c>
       <c r="I13">
-        <v>0.168</v>
+        <v>0.213</v>
       </c>
       <c r="J13">
-        <v>0.866</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10863,10 +10863,10 @@
         <v>-0.021</v>
       </c>
       <c r="I14">
-        <v>-0.701</v>
+        <v>-0.64</v>
       </c>
       <c r="J14">
-        <v>0.484</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10895,10 +10895,10 @@
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>0.3</v>
+        <v>0.415</v>
       </c>
       <c r="J15">
-        <v>0.764</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10927,10 +10927,10 @@
         <v>0.014</v>
       </c>
       <c r="I16">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="J16">
-        <v>0.704</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10959,10 +10959,10 @@
         <v>-0.018</v>
       </c>
       <c r="I17">
-        <v>-0.468</v>
+        <v>-0.67</v>
       </c>
       <c r="J17">
-        <v>0.641</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10991,10 +10991,10 @@
         <v>-0.058</v>
       </c>
       <c r="I18">
-        <v>-1.433</v>
+        <v>-1.962</v>
       </c>
       <c r="J18">
-        <v>0.154</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11023,10 +11023,10 @@
         <v>-0.005</v>
       </c>
       <c r="I19">
-        <v>-0.119</v>
+        <v>-0.125</v>
       </c>
       <c r="J19">
-        <v>0.905</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -11112,10 +11112,10 @@
         <v>-2.623</v>
       </c>
       <c r="I2">
-        <v>-0.766</v>
+        <v>-0.84</v>
       </c>
       <c r="J2">
-        <v>0.445</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11144,10 +11144,10 @@
         <v>-5.279</v>
       </c>
       <c r="I3">
-        <v>-1.627</v>
+        <v>-1.485</v>
       </c>
       <c r="J3">
-        <v>0.106</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11176,10 +11176,10 @@
         <v>-0.697</v>
       </c>
       <c r="I4">
-        <v>-0.192</v>
+        <v>-0.182</v>
       </c>
       <c r="J4">
-        <v>0.848</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11208,10 +11208,10 @@
         <v>2.058</v>
       </c>
       <c r="I5">
-        <v>0.588</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="J5">
-        <v>0.5570000000000001</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11240,10 +11240,10 @@
         <v>0.52</v>
       </c>
       <c r="I6">
-        <v>0.148</v>
+        <v>0.167</v>
       </c>
       <c r="J6">
-        <v>0.883</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11272,10 +11272,10 @@
         <v>-2.885</v>
       </c>
       <c r="I7">
-        <v>-0.747</v>
+        <v>-0.645</v>
       </c>
       <c r="J7">
-        <v>0.456</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11304,10 +11304,10 @@
         <v>1.757</v>
       </c>
       <c r="I8">
-        <v>1.308</v>
+        <v>1.319</v>
       </c>
       <c r="J8">
-        <v>0.193</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11336,10 +11336,10 @@
         <v>2.385</v>
       </c>
       <c r="I9">
-        <v>1.911</v>
+        <v>1.719</v>
       </c>
       <c r="J9">
-        <v>0.058</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11368,7 +11368,7 @@
         <v>0.054</v>
       </c>
       <c r="I10">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="J10">
         <v>0.97</v>
@@ -11400,10 +11400,10 @@
         <v>-0.754</v>
       </c>
       <c r="I11">
-        <v>-0.528</v>
+        <v>-0.679</v>
       </c>
       <c r="J11">
-        <v>0.598</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11432,10 +11432,10 @@
         <v>0.5620000000000001</v>
       </c>
       <c r="I12">
-        <v>0.399</v>
+        <v>0.388</v>
       </c>
       <c r="J12">
-        <v>0.6899999999999999</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11464,10 +11464,10 @@
         <v>1.497</v>
       </c>
       <c r="I13">
-        <v>1.053</v>
+        <v>0.98</v>
       </c>
       <c r="J13">
-        <v>0.294</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11496,10 +11496,10 @@
         <v>-0.037</v>
       </c>
       <c r="I14">
-        <v>-2.014</v>
+        <v>-2.183</v>
       </c>
       <c r="J14">
-        <v>0.046</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11528,10 +11528,10 @@
         <v>-0.024</v>
       </c>
       <c r="I15">
-        <v>-1.213</v>
+        <v>-1.266</v>
       </c>
       <c r="J15">
-        <v>0.227</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11560,10 +11560,10 @@
         <v>-0.027</v>
       </c>
       <c r="I16">
-        <v>-1.216</v>
+        <v>-1.371</v>
       </c>
       <c r="J16">
-        <v>0.226</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11592,10 +11592,10 @@
         <v>-0.028</v>
       </c>
       <c r="I17">
-        <v>-1.255</v>
+        <v>-1.277</v>
       </c>
       <c r="J17">
-        <v>0.211</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11624,10 +11624,10 @@
         <v>-0.006</v>
       </c>
       <c r="I18">
-        <v>-0.239</v>
+        <v>-0.218</v>
       </c>
       <c r="J18">
-        <v>0.8110000000000001</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11745,10 +11745,10 @@
         <v>-7.047</v>
       </c>
       <c r="I2">
-        <v>-1.771</v>
+        <v>-2.081</v>
       </c>
       <c r="J2">
-        <v>0.078</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11777,10 +11777,10 @@
         <v>-6.154</v>
       </c>
       <c r="I3">
-        <v>-1.62</v>
+        <v>-1.486</v>
       </c>
       <c r="J3">
-        <v>0.107</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11809,10 +11809,10 @@
         <v>1.848</v>
       </c>
       <c r="I4">
-        <v>0.435</v>
+        <v>0.424</v>
       </c>
       <c r="J4">
-        <v>0.664</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11841,10 +11841,10 @@
         <v>2.385</v>
       </c>
       <c r="I5">
-        <v>0.582</v>
+        <v>0.538</v>
       </c>
       <c r="J5">
-        <v>0.5610000000000001</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11873,10 +11873,10 @@
         <v>2.073</v>
       </c>
       <c r="I6">
-        <v>0.504</v>
+        <v>0.623</v>
       </c>
       <c r="J6">
-        <v>0.615</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11905,10 +11905,10 @@
         <v>-2.476</v>
       </c>
       <c r="I7">
-        <v>-0.547</v>
+        <v>-0.467</v>
       </c>
       <c r="J7">
-        <v>0.585</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11937,10 +11937,10 @@
         <v>3.009</v>
       </c>
       <c r="I8">
-        <v>1.925</v>
+        <v>2.055</v>
       </c>
       <c r="J8">
-        <v>0.056</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11969,10 +11969,10 @@
         <v>3.269</v>
       </c>
       <c r="I9">
-        <v>2.247</v>
+        <v>1.906</v>
       </c>
       <c r="J9">
-        <v>0.026</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12001,10 +12001,10 @@
         <v>-1.043</v>
       </c>
       <c r="I10">
-        <v>-0.622</v>
+        <v>-0.6</v>
       </c>
       <c r="J10">
-        <v>0.534</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12033,10 +12033,10 @@
         <v>-1.228</v>
       </c>
       <c r="I11">
-        <v>-0.735</v>
+        <v>-0.823</v>
       </c>
       <c r="J11">
-        <v>0.463</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12065,10 +12065,10 @@
         <v>-0.23</v>
       </c>
       <c r="I12">
-        <v>-0.14</v>
+        <v>-0.144</v>
       </c>
       <c r="J12">
-        <v>0.889</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12097,10 +12097,10 @@
         <v>1.311</v>
       </c>
       <c r="I13">
-        <v>0.787</v>
+        <v>0.676</v>
       </c>
       <c r="J13">
-        <v>0.432</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12129,10 +12129,10 @@
         <v>-0.046</v>
       </c>
       <c r="I14">
-        <v>-2.18</v>
+        <v>-2.383</v>
       </c>
       <c r="J14">
-        <v>0.031</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12161,10 +12161,10 @@
         <v>-0.033</v>
       </c>
       <c r="I15">
-        <v>-1.446</v>
+        <v>-1.539</v>
       </c>
       <c r="J15">
-        <v>0.15</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12193,10 +12193,10 @@
         <v>0.007</v>
       </c>
       <c r="I16">
-        <v>0.281</v>
+        <v>0.286</v>
       </c>
       <c r="J16">
-        <v>0.779</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12225,10 +12225,10 @@
         <v>-0.019</v>
       </c>
       <c r="I17">
-        <v>-0.701</v>
+        <v>-0.704</v>
       </c>
       <c r="J17">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12257,10 +12257,10 @@
         <v>0.029</v>
       </c>
       <c r="I18">
-        <v>0.996</v>
+        <v>0.869</v>
       </c>
       <c r="J18">
-        <v>0.32</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12289,10 +12289,10 @@
         <v>0.028</v>
       </c>
       <c r="I19">
-        <v>0.896</v>
+        <v>0.66</v>
       </c>
       <c r="J19">
-        <v>0.371</v>
+        <v>0.509</v>
       </c>
     </row>
   </sheetData>
@@ -12378,10 +12378,10 @@
         <v>-7.778</v>
       </c>
       <c r="I2">
-        <v>-1.633</v>
+        <v>-2.115</v>
       </c>
       <c r="J2">
-        <v>0.104</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12410,10 +12410,10 @@
         <v>-1.993</v>
       </c>
       <c r="I3">
-        <v>-0.436</v>
+        <v>-0.378</v>
       </c>
       <c r="J3">
-        <v>0.664</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12442,10 +12442,10 @@
         <v>3.659</v>
       </c>
       <c r="I4">
-        <v>0.721</v>
+        <v>0.695</v>
       </c>
       <c r="J4">
-        <v>0.472</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12474,10 +12474,10 @@
         <v>2.274</v>
       </c>
       <c r="I5">
-        <v>0.464</v>
+        <v>0.495</v>
       </c>
       <c r="J5">
-        <v>0.643</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12506,10 +12506,10 @@
         <v>1.278</v>
       </c>
       <c r="I6">
-        <v>0.26</v>
+        <v>0.337</v>
       </c>
       <c r="J6">
-        <v>0.795</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12538,10 +12538,10 @@
         <v>-6.309</v>
       </c>
       <c r="I7">
-        <v>-1.17</v>
+        <v>-1.1</v>
       </c>
       <c r="J7">
-        <v>0.244</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12570,10 +12570,10 @@
         <v>3.163</v>
       </c>
       <c r="I8">
-        <v>1.688</v>
+        <v>2.022</v>
       </c>
       <c r="J8">
-        <v>0.093</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12602,10 +12602,10 @@
         <v>1.89</v>
       </c>
       <c r="I9">
-        <v>1.074</v>
+        <v>0.832</v>
       </c>
       <c r="J9">
-        <v>0.284</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12634,10 +12634,10 @@
         <v>-1.317</v>
       </c>
       <c r="I10">
-        <v>-0.657</v>
+        <v>-0.646</v>
       </c>
       <c r="J10">
-        <v>0.512</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12666,10 +12666,10 @@
         <v>-1.143</v>
       </c>
       <c r="I11">
-        <v>-0.572</v>
+        <v>-0.661</v>
       </c>
       <c r="J11">
-        <v>0.5679999999999999</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12701,7 +12701,7 @@
         <v>0.003</v>
       </c>
       <c r="J12">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12730,10 +12730,10 @@
         <v>2.386</v>
       </c>
       <c r="I13">
-        <v>1.2</v>
+        <v>1.148</v>
       </c>
       <c r="J13">
-        <v>0.232</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12762,10 +12762,10 @@
         <v>-0.051</v>
       </c>
       <c r="I14">
-        <v>-2.001</v>
+        <v>-2.151</v>
       </c>
       <c r="J14">
-        <v>0.047</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12794,10 +12794,10 @@
         <v>-0.036</v>
       </c>
       <c r="I15">
-        <v>-1.295</v>
+        <v>-1.377</v>
       </c>
       <c r="J15">
-        <v>0.197</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12826,10 +12826,10 @@
         <v>0.005</v>
       </c>
       <c r="I16">
-        <v>0.167</v>
+        <v>0.193</v>
       </c>
       <c r="J16">
-        <v>0.868</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12858,10 +12858,10 @@
         <v>-0.023</v>
       </c>
       <c r="I17">
-        <v>-0.723</v>
+        <v>-0.908</v>
       </c>
       <c r="J17">
-        <v>0.47</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12890,10 +12890,10 @@
         <v>0.025</v>
       </c>
       <c r="I18">
-        <v>0.723</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="J18">
-        <v>0.471</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12922,10 +12922,10 @@
         <v>0.044</v>
       </c>
       <c r="I19">
-        <v>1.16</v>
+        <v>1.118</v>
       </c>
       <c r="J19">
-        <v>0.248</v>
+        <v>0.264</v>
       </c>
     </row>
   </sheetData>
@@ -13018,10 +13018,10 @@
         <v>-8.455</v>
       </c>
       <c r="J2">
-        <v>-1.612</v>
+        <v>-2.113</v>
       </c>
       <c r="K2">
-        <v>0.109</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13053,10 +13053,10 @@
         <v>-3.851</v>
       </c>
       <c r="J3">
-        <v>-0.766</v>
+        <v>-0.729</v>
       </c>
       <c r="K3">
-        <v>0.445</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13088,10 +13088,10 @@
         <v>5.31</v>
       </c>
       <c r="J4">
-        <v>0.952</v>
+        <v>1.023</v>
       </c>
       <c r="K4">
-        <v>0.342</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13123,10 +13123,10 @@
         <v>4.907</v>
       </c>
       <c r="J5">
-        <v>0.911</v>
+        <v>1.103</v>
       </c>
       <c r="K5">
-        <v>0.364</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13158,10 +13158,10 @@
         <v>2.005</v>
       </c>
       <c r="J6">
-        <v>0.371</v>
+        <v>0.403</v>
       </c>
       <c r="K6">
-        <v>0.711</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13193,10 +13193,10 @@
         <v>-3.513</v>
       </c>
       <c r="J7">
-        <v>-0.59</v>
+        <v>-0.6850000000000001</v>
       </c>
       <c r="K7">
-        <v>0.556</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13228,10 +13228,10 @@
         <v>2.797</v>
       </c>
       <c r="J8">
-        <v>1.352</v>
+        <v>1.773</v>
       </c>
       <c r="K8">
-        <v>0.178</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13263,10 +13263,10 @@
         <v>2.63</v>
       </c>
       <c r="J9">
-        <v>1.361</v>
+        <v>1.143</v>
       </c>
       <c r="K9">
-        <v>0.175</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13298,10 +13298,10 @@
         <v>-1.97</v>
       </c>
       <c r="J10">
-        <v>-0.894</v>
+        <v>-1.009</v>
       </c>
       <c r="K10">
-        <v>0.372</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13333,10 +13333,10 @@
         <v>-2.182</v>
       </c>
       <c r="J11">
-        <v>-0.994</v>
+        <v>-1.097</v>
       </c>
       <c r="K11">
-        <v>0.322</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13368,10 +13368,10 @@
         <v>-0.99</v>
       </c>
       <c r="J12">
-        <v>-0.457</v>
+        <v>-0.486</v>
       </c>
       <c r="K12">
-        <v>0.649</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13403,10 +13403,10 @@
         <v>0.886</v>
       </c>
       <c r="J13">
-        <v>0.404</v>
+        <v>0.464</v>
       </c>
       <c r="K13">
-        <v>0.6870000000000001</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13438,10 +13438,10 @@
         <v>-0.034</v>
       </c>
       <c r="J14">
-        <v>-1.215</v>
+        <v>-1.633</v>
       </c>
       <c r="K14">
-        <v>0.226</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13473,10 +13473,10 @@
         <v>-0.02</v>
       </c>
       <c r="J15">
-        <v>-0.662</v>
+        <v>-0.924</v>
       </c>
       <c r="K15">
-        <v>0.509</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13508,10 +13508,10 @@
         <v>0.021</v>
       </c>
       <c r="J16">
-        <v>0.606</v>
+        <v>0.714</v>
       </c>
       <c r="K16">
-        <v>0.545</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13543,10 +13543,10 @@
         <v>-0.022</v>
       </c>
       <c r="J17">
-        <v>-0.638</v>
+        <v>-0.866</v>
       </c>
       <c r="K17">
-        <v>0.524</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13613,10 +13613,10 @@
         <v>0.022</v>
       </c>
       <c r="J19">
-        <v>0.516</v>
+        <v>0.534</v>
       </c>
       <c r="K19">
-        <v>0.606</v>
+        <v>0.594</v>
       </c>
     </row>
   </sheetData>
@@ -13702,10 +13702,10 @@
         <v>-3.285</v>
       </c>
       <c r="I2">
-        <v>-0.978</v>
+        <v>-1.145</v>
       </c>
       <c r="J2">
-        <v>0.33</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13734,10 +13734,10 @@
         <v>-6.724</v>
       </c>
       <c r="I3">
-        <v>-2.179</v>
+        <v>-1.965</v>
       </c>
       <c r="J3">
-        <v>0.031</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13766,10 +13766,10 @@
         <v>-4.205</v>
       </c>
       <c r="I4">
-        <v>-1.22</v>
+        <v>-1.109</v>
       </c>
       <c r="J4">
-        <v>0.224</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13798,10 +13798,10 @@
         <v>1.345</v>
       </c>
       <c r="I5">
-        <v>0.396</v>
+        <v>0.364</v>
       </c>
       <c r="J5">
-        <v>0.6929999999999999</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13830,10 +13830,10 @@
         <v>1.71</v>
       </c>
       <c r="I6">
-        <v>0.499</v>
+        <v>0.508</v>
       </c>
       <c r="J6">
-        <v>0.619</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13862,10 +13862,10 @@
         <v>-1.835</v>
       </c>
       <c r="I7">
-        <v>-0.487</v>
+        <v>-0.443</v>
       </c>
       <c r="J7">
-        <v>0.627</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13894,10 +13894,10 @@
         <v>2.219</v>
       </c>
       <c r="I8">
-        <v>1.693</v>
+        <v>1.831</v>
       </c>
       <c r="J8">
-        <v>0.092</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13926,10 +13926,10 @@
         <v>2.509</v>
       </c>
       <c r="I9">
-        <v>2.169</v>
+        <v>1.935</v>
       </c>
       <c r="J9">
-        <v>0.032</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13958,10 +13958,10 @@
         <v>1.594</v>
       </c>
       <c r="I10">
-        <v>1.177</v>
+        <v>1.06</v>
       </c>
       <c r="J10">
-        <v>0.241</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13990,10 +13990,10 @@
         <v>-0.705</v>
       </c>
       <c r="I11">
-        <v>-0.513</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="J11">
-        <v>0.609</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14022,10 +14022,10 @@
         <v>0.14</v>
       </c>
       <c r="I12">
-        <v>0.102</v>
+        <v>0.096</v>
       </c>
       <c r="J12">
-        <v>0.919</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14054,10 +14054,10 @@
         <v>1.061</v>
       </c>
       <c r="I13">
-        <v>0.759</v>
+        <v>0.794</v>
       </c>
       <c r="J13">
-        <v>0.449</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14086,10 +14086,10 @@
         <v>-0.029</v>
       </c>
       <c r="I14">
-        <v>-1.591</v>
+        <v>-2.725</v>
       </c>
       <c r="J14">
-        <v>0.114</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14118,10 +14118,10 @@
         <v>-0.026</v>
       </c>
       <c r="I15">
-        <v>-1.391</v>
+        <v>-1.362</v>
       </c>
       <c r="J15">
-        <v>0.166</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14150,10 +14150,10 @@
         <v>-0.04</v>
       </c>
       <c r="I16">
-        <v>-1.909</v>
+        <v>-1.521</v>
       </c>
       <c r="J16">
-        <v>0.058</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14182,10 +14182,10 @@
         <v>-0.019</v>
       </c>
       <c r="I17">
-        <v>-0.876</v>
+        <v>-0.826</v>
       </c>
       <c r="J17">
-        <v>0.383</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14214,10 +14214,10 @@
         <v>0.005</v>
       </c>
       <c r="I18">
-        <v>0.207</v>
+        <v>0.185</v>
       </c>
       <c r="J18">
-        <v>0.836</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14246,10 +14246,10 @@
         <v>0.005</v>
       </c>
       <c r="I19">
-        <v>0.169</v>
+        <v>0.153</v>
       </c>
       <c r="J19">
-        <v>0.866</v>
+        <v>0.878</v>
       </c>
     </row>
   </sheetData>
